--- a/relatedFiles/other files/trail%20service%20upload%20website%20-%20Copy.xlsx
+++ b/relatedFiles/other files/trail%20service%20upload%20website%20-%20Copy.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A40B1AE0-EB8E-9543-B8A2-DFEC8A882B5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CF3319-0A25-48E4-9EB2-9CBBAE23BEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$106</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -960,9 +960,6 @@
     <t>Bridal Dressing</t>
   </si>
   <si>
-    <t>sereviceTo</t>
-  </si>
-  <si>
     <t>a_discount_price</t>
   </si>
   <si>
@@ -1355,6 +1352,9 @@
   </si>
   <si>
     <t>Hair Care &amp; Facial</t>
+  </si>
+  <si>
+    <t>serviceTo</t>
   </si>
 </sst>
 </file>
@@ -1408,6 +1408,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1861,84 +1862,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.65234375" customWidth="1"/>
-    <col min="2" max="2" width="32.6875" customWidth="1"/>
-    <col min="3" max="3" width="35.37890625" customWidth="1"/>
-    <col min="4" max="4" width="49.50390625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="32.015625" customWidth="1"/>
-    <col min="7" max="7" width="43.31640625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="92.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>223</v>
       </c>
@@ -1952,7 +1964,7 @@
         <v>266</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>265</v>
@@ -1976,10 +1988,10 @@
         <v>265</v>
       </c>
       <c r="M2" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>144</v>
@@ -1997,12 +2009,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>264</v>
@@ -2011,7 +2023,7 @@
         <v>264</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>263</v>
@@ -2035,10 +2047,10 @@
         <v>263</v>
       </c>
       <c r="M3" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N3" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>262</v>
@@ -2056,12 +2068,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>261</v>
@@ -2070,7 +2082,7 @@
         <v>261</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>153</v>
@@ -2094,10 +2106,10 @@
         <v>260</v>
       </c>
       <c r="M4" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N4" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>259</v>
@@ -2115,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>223</v>
       </c>
@@ -2129,7 +2141,7 @@
         <v>258</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>234</v>
@@ -2153,10 +2165,10 @@
         <v>234</v>
       </c>
       <c r="M5" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N5" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O5" s="14" t="s">
         <v>81</v>
@@ -2174,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>223</v>
       </c>
@@ -2188,7 +2200,7 @@
         <v>257</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>256</v>
@@ -2212,10 +2224,10 @@
         <v>256</v>
       </c>
       <c r="M6" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N6" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>255</v>
@@ -2233,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>223</v>
       </c>
@@ -2247,7 +2259,7 @@
         <v>254</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>253</v>
@@ -2271,10 +2283,10 @@
         <v>253</v>
       </c>
       <c r="M7" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N7" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>89</v>
@@ -2292,12 +2304,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>252</v>
@@ -2306,7 +2318,7 @@
         <v>252</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>245</v>
@@ -2330,10 +2342,10 @@
         <v>251</v>
       </c>
       <c r="M8" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N8" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>224</v>
@@ -2351,12 +2363,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>250</v>
@@ -2365,13 +2377,13 @@
         <v>250</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>245</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H9">
         <v>30</v>
@@ -2386,13 +2398,13 @@
         <v>3</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M9" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N9" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>144</v>
@@ -2410,12 +2422,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>249</v>
@@ -2424,7 +2436,7 @@
         <v>249</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>248</v>
@@ -2448,10 +2460,10 @@
         <v>247</v>
       </c>
       <c r="M10" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N10" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>224</v>
@@ -2469,12 +2481,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>246</v>
@@ -2483,7 +2495,7 @@
         <v>246</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>245</v>
@@ -2507,10 +2519,10 @@
         <v>244</v>
       </c>
       <c r="M11" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N11" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>97</v>
@@ -2528,12 +2540,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>243</v>
@@ -2542,7 +2554,7 @@
         <v>243</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>242</v>
@@ -2566,10 +2578,10 @@
         <v>242</v>
       </c>
       <c r="M12" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N12" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>231</v>
@@ -2587,12 +2599,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>241</v>
@@ -2601,7 +2613,7 @@
         <v>241</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>240</v>
@@ -2625,10 +2637,10 @@
         <v>240</v>
       </c>
       <c r="M13" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N13" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>228</v>
@@ -2646,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>223</v>
       </c>
@@ -2660,7 +2672,7 @@
         <v>239</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>7</v>
@@ -2684,10 +2696,10 @@
         <v>238</v>
       </c>
       <c r="M14" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N14" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N14" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>1</v>
@@ -2705,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>223</v>
       </c>
@@ -2719,7 +2731,7 @@
         <v>237</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>153</v>
@@ -2743,10 +2755,10 @@
         <v>236</v>
       </c>
       <c r="M15" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N15" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>219</v>
@@ -2764,7 +2776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>223</v>
       </c>
@@ -2778,7 +2790,7 @@
         <v>235</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>234</v>
@@ -2802,10 +2814,10 @@
         <v>234</v>
       </c>
       <c r="M16" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N16" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>228</v>
@@ -2823,12 +2835,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>233</v>
@@ -2837,7 +2849,7 @@
         <v>233</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>232</v>
@@ -2861,10 +2873,10 @@
         <v>232</v>
       </c>
       <c r="M17" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N17" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N17" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>231</v>
@@ -2882,12 +2894,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>223</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>230</v>
@@ -2896,7 +2908,7 @@
         <v>230</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>229</v>
@@ -2920,10 +2932,10 @@
         <v>229</v>
       </c>
       <c r="M18" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N18" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>228</v>
@@ -2941,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>223</v>
       </c>
@@ -2955,7 +2967,7 @@
         <v>226</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>225</v>
@@ -2979,10 +2991,10 @@
         <v>225</v>
       </c>
       <c r="M19" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N19" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N19" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>224</v>
@@ -3000,7 +3012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>223</v>
       </c>
@@ -3014,7 +3026,7 @@
         <v>221</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>153</v>
@@ -3038,10 +3050,10 @@
         <v>220</v>
       </c>
       <c r="M20" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N20" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N20" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>219</v>
@@ -3059,9 +3071,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>211</v>
@@ -3073,7 +3085,7 @@
         <v>218</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>217</v>
@@ -3097,10 +3109,10 @@
         <v>217</v>
       </c>
       <c r="M21" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N21" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N21" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>59</v>
@@ -3118,9 +3130,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>206</v>
@@ -3132,7 +3144,7 @@
         <v>216</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>109</v>
@@ -3156,10 +3168,10 @@
         <v>215</v>
       </c>
       <c r="M22" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N22" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N22" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>59</v>
@@ -3177,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>64</v>
       </c>
@@ -3191,7 +3203,7 @@
         <v>214</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>67</v>
@@ -3215,10 +3227,10 @@
         <v>66</v>
       </c>
       <c r="M23" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N23" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N23" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>65</v>
@@ -3236,12 +3248,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>213</v>
@@ -3250,7 +3262,7 @@
         <v>213</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>212</v>
@@ -3274,10 +3286,10 @@
         <v>212</v>
       </c>
       <c r="M24" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N24" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N24" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>1</v>
@@ -3295,9 +3307,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>211</v>
@@ -3309,7 +3321,7 @@
         <v>210</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>209</v>
@@ -3333,10 +3345,10 @@
         <v>209</v>
       </c>
       <c r="M25" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N25" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>148</v>
@@ -3354,9 +3366,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>206</v>
@@ -3368,7 +3380,7 @@
         <v>208</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>204</v>
@@ -3392,10 +3404,10 @@
         <v>207</v>
       </c>
       <c r="M26" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N26" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N26" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>59</v>
@@ -3413,9 +3425,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>206</v>
@@ -3427,7 +3439,7 @@
         <v>205</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>204</v>
@@ -3451,10 +3463,10 @@
         <v>203</v>
       </c>
       <c r="M27" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N27" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N27" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>202</v>
@@ -3472,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>64</v>
       </c>
@@ -3486,7 +3498,7 @@
         <v>201</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>61</v>
@@ -3510,10 +3522,10 @@
         <v>200</v>
       </c>
       <c r="M28" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N28" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N28" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>59</v>
@@ -3531,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>64</v>
       </c>
@@ -3545,7 +3557,7 @@
         <v>199</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>160</v>
@@ -3569,10 +3581,10 @@
         <v>198</v>
       </c>
       <c r="M29" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N29" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N29" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>108</v>
@@ -3590,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>64</v>
       </c>
@@ -3604,7 +3616,7 @@
         <v>197</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>192</v>
@@ -3628,10 +3640,10 @@
         <v>191</v>
       </c>
       <c r="M30" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N30" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N30" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>101</v>
@@ -3649,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>64</v>
       </c>
@@ -3663,7 +3675,7 @@
         <v>196</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>192</v>
@@ -3687,10 +3699,10 @@
         <v>191</v>
       </c>
       <c r="M31" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N31" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N31" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>195</v>
@@ -3708,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>64</v>
       </c>
@@ -3722,7 +3734,7 @@
         <v>194</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>192</v>
@@ -3746,10 +3758,10 @@
         <v>191</v>
       </c>
       <c r="M32" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N32" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N32" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>156</v>
@@ -3767,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>64</v>
       </c>
@@ -3781,7 +3793,7 @@
         <v>193</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>192</v>
@@ -3805,10 +3817,10 @@
         <v>191</v>
       </c>
       <c r="M33" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N33" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N33" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>101</v>
@@ -3826,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
@@ -3840,7 +3852,7 @@
         <v>190</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>67</v>
@@ -3864,10 +3876,10 @@
         <v>66</v>
       </c>
       <c r="M34" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N34" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N34" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>65</v>
@@ -3885,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>64</v>
       </c>
@@ -3899,7 +3911,7 @@
         <v>189</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>188</v>
@@ -3923,10 +3935,10 @@
         <v>187</v>
       </c>
       <c r="M35" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N35" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N35" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>108</v>
@@ -3944,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>64</v>
       </c>
@@ -3958,7 +3970,7 @@
         <v>186</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>182</v>
@@ -3982,10 +3994,10 @@
         <v>181</v>
       </c>
       <c r="M36" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N36" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N36" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>108</v>
@@ -4003,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>64</v>
       </c>
@@ -4017,7 +4029,7 @@
         <v>185</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>182</v>
@@ -4041,10 +4053,10 @@
         <v>181</v>
       </c>
       <c r="M37" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N37" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>184</v>
@@ -4062,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>64</v>
       </c>
@@ -4076,7 +4088,7 @@
         <v>183</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>182</v>
@@ -4100,10 +4112,10 @@
         <v>181</v>
       </c>
       <c r="M38" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N38" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N38" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>108</v>
@@ -4121,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>64</v>
       </c>
@@ -4135,7 +4147,7 @@
         <v>180</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>179</v>
@@ -4159,10 +4171,10 @@
         <v>178</v>
       </c>
       <c r="M39" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N39" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N39" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O39" s="3" t="s">
         <v>156</v>
@@ -4180,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>64</v>
       </c>
@@ -4194,7 +4206,7 @@
         <v>177</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>61</v>
@@ -4218,10 +4230,10 @@
         <v>176</v>
       </c>
       <c r="M40" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N40" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N40" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>175</v>
@@ -4239,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>64</v>
       </c>
@@ -4253,7 +4265,7 @@
         <v>174</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>67</v>
@@ -4277,10 +4289,10 @@
         <v>66</v>
       </c>
       <c r="M41" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N41" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N41" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>70</v>
@@ -4298,7 +4310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>64</v>
       </c>
@@ -4312,7 +4324,7 @@
         <v>173</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>91</v>
@@ -4336,10 +4348,10 @@
         <v>172</v>
       </c>
       <c r="M42" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N42" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N42" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>116</v>
@@ -4357,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>64</v>
       </c>
@@ -4371,7 +4383,7 @@
         <v>171</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>61</v>
@@ -4395,10 +4407,10 @@
         <v>170</v>
       </c>
       <c r="M43" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N43" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N43" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>59</v>
@@ -4416,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>64</v>
       </c>
@@ -4430,7 +4442,7 @@
         <v>169</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>168</v>
@@ -4454,10 +4466,10 @@
         <v>167</v>
       </c>
       <c r="M44" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N44" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N44" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>144</v>
@@ -4475,7 +4487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>64</v>
       </c>
@@ -4489,7 +4501,7 @@
         <v>166</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>165</v>
@@ -4513,10 +4525,10 @@
         <v>164</v>
       </c>
       <c r="M45" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N45" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N45" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>116</v>
@@ -4534,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>64</v>
       </c>
@@ -4548,7 +4560,7 @@
         <v>163</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>67</v>
@@ -4572,10 +4584,10 @@
         <v>66</v>
       </c>
       <c r="M46" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N46" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N46" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>70</v>
@@ -4593,7 +4605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>64</v>
       </c>
@@ -4607,7 +4619,7 @@
         <v>162</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>72</v>
@@ -4631,10 +4643,10 @@
         <v>71</v>
       </c>
       <c r="M47" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N47" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N47" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>59</v>
@@ -4652,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>64</v>
       </c>
@@ -4666,7 +4678,7 @@
         <v>161</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>160</v>
@@ -4690,10 +4702,10 @@
         <v>159</v>
       </c>
       <c r="M48" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N48" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N48" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>148</v>
@@ -4711,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>64</v>
       </c>
@@ -4725,7 +4737,7 @@
         <v>158</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>157</v>
@@ -4749,10 +4761,10 @@
         <v>66</v>
       </c>
       <c r="M49" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N49" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N49" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>156</v>
@@ -4770,7 +4782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>64</v>
       </c>
@@ -4784,7 +4796,7 @@
         <v>155</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>118</v>
@@ -4808,10 +4820,10 @@
         <v>117</v>
       </c>
       <c r="M50" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N50" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N50" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>59</v>
@@ -4829,7 +4841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>64</v>
       </c>
@@ -4843,7 +4855,7 @@
         <v>154</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>153</v>
@@ -4867,10 +4879,10 @@
         <v>152</v>
       </c>
       <c r="M51" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N51" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N51" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O51" s="3" t="s">
         <v>151</v>
@@ -4888,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>64</v>
       </c>
@@ -4902,7 +4914,7 @@
         <v>150</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>51</v>
@@ -4926,10 +4938,10 @@
         <v>149</v>
       </c>
       <c r="M52" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N52" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N52" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>148</v>
@@ -4947,7 +4959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>64</v>
       </c>
@@ -4961,7 +4973,7 @@
         <v>147</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>146</v>
@@ -4985,10 +4997,10 @@
         <v>145</v>
       </c>
       <c r="M53" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N53" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N53" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O53" s="3" t="s">
         <v>144</v>
@@ -5006,7 +5018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>64</v>
       </c>
@@ -5020,7 +5032,7 @@
         <v>143</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>142</v>
@@ -5044,10 +5056,10 @@
         <v>142</v>
       </c>
       <c r="M54" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N54" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N54" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>141</v>
@@ -5065,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>64</v>
       </c>
@@ -5079,7 +5091,7 @@
         <v>140</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>139</v>
@@ -5103,10 +5115,10 @@
         <v>138</v>
       </c>
       <c r="M55" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N55" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N55" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O55" s="3" t="s">
         <v>137</v>
@@ -5124,7 +5136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>64</v>
       </c>
@@ -5138,7 +5150,7 @@
         <v>136</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>135</v>
@@ -5162,10 +5174,10 @@
         <v>134</v>
       </c>
       <c r="M56" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N56" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N56" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>81</v>
@@ -5183,7 +5195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>64</v>
       </c>
@@ -5197,7 +5209,7 @@
         <v>133</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>132</v>
@@ -5221,10 +5233,10 @@
         <v>131</v>
       </c>
       <c r="M57" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N57" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N57" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>108</v>
@@ -5242,7 +5254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>64</v>
       </c>
@@ -5256,7 +5268,7 @@
         <v>130</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>129</v>
@@ -5280,10 +5292,10 @@
         <v>126</v>
       </c>
       <c r="M58" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N58" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N58" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>59</v>
@@ -5301,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>64</v>
       </c>
@@ -5315,7 +5327,7 @@
         <v>128</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>127</v>
@@ -5339,10 +5351,10 @@
         <v>126</v>
       </c>
       <c r="M59" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N59" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N59" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>59</v>
@@ -5360,7 +5372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>64</v>
       </c>
@@ -5374,7 +5386,7 @@
         <v>125</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>124</v>
@@ -5398,10 +5410,10 @@
         <v>123</v>
       </c>
       <c r="M60" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N60" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N60" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>116</v>
@@ -5419,7 +5431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>64</v>
       </c>
@@ -5433,7 +5445,7 @@
         <v>122</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>121</v>
@@ -5457,10 +5469,10 @@
         <v>71</v>
       </c>
       <c r="M61" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N61" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N61" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O61" s="3" t="s">
         <v>120</v>
@@ -5478,7 +5490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>64</v>
       </c>
@@ -5492,7 +5504,7 @@
         <v>119</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>118</v>
@@ -5516,10 +5528,10 @@
         <v>117</v>
       </c>
       <c r="M62" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N62" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N62" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>116</v>
@@ -5537,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>64</v>
       </c>
@@ -5575,10 +5587,10 @@
         <v>113</v>
       </c>
       <c r="M63" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N63" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N63" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O63" s="3" t="s">
         <v>108</v>
@@ -5596,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>64</v>
       </c>
@@ -5610,7 +5622,7 @@
         <v>112</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>76</v>
@@ -5634,10 +5646,10 @@
         <v>111</v>
       </c>
       <c r="M64" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N64" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N64" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>81</v>
@@ -5655,9 +5667,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>206</v>
@@ -5669,7 +5681,7 @@
         <v>110</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>109</v>
@@ -5693,10 +5705,10 @@
         <v>109</v>
       </c>
       <c r="M65" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N65" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N65" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O65" s="3" t="s">
         <v>108</v>
@@ -5714,7 +5726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>64</v>
       </c>
@@ -5752,10 +5764,10 @@
         <v>105</v>
       </c>
       <c r="M66" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N66" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N66" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>59</v>
@@ -5773,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>64</v>
       </c>
@@ -5787,7 +5799,7 @@
         <v>104</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>7</v>
@@ -5811,10 +5823,10 @@
         <v>103</v>
       </c>
       <c r="M67" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N67" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N67" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O67" s="6" t="s">
         <v>1</v>
@@ -5832,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>64</v>
       </c>
@@ -5846,7 +5858,7 @@
         <v>102</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>99</v>
@@ -5870,10 +5882,10 @@
         <v>98</v>
       </c>
       <c r="M68" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N68" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N68" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O68" s="3" t="s">
         <v>101</v>
@@ -5891,7 +5903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>64</v>
       </c>
@@ -5905,7 +5917,7 @@
         <v>100</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>99</v>
@@ -5929,10 +5941,10 @@
         <v>98</v>
       </c>
       <c r="M69" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N69" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N69" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O69" s="3" t="s">
         <v>97</v>
@@ -5950,7 +5962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>64</v>
       </c>
@@ -5964,7 +5976,7 @@
         <v>96</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>95</v>
@@ -5988,10 +6000,10 @@
         <v>94</v>
       </c>
       <c r="M70" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N70" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N70" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>93</v>
@@ -6009,7 +6021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>64</v>
       </c>
@@ -6023,7 +6035,7 @@
         <v>92</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>91</v>
@@ -6047,10 +6059,10 @@
         <v>90</v>
       </c>
       <c r="M71" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N71" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N71" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O71" s="3" t="s">
         <v>89</v>
@@ -6068,7 +6080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>64</v>
       </c>
@@ -6106,10 +6118,10 @@
         <v>85</v>
       </c>
       <c r="M72" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N72" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N72" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>59</v>
@@ -6127,7 +6139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>64</v>
       </c>
@@ -6141,7 +6153,7 @@
         <v>84</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>83</v>
@@ -6165,10 +6177,10 @@
         <v>82</v>
       </c>
       <c r="M73" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N73" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N73" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O73" s="3" t="s">
         <v>81</v>
@@ -6186,7 +6198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>64</v>
       </c>
@@ -6200,7 +6212,7 @@
         <v>80</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>76</v>
@@ -6224,10 +6236,10 @@
         <v>79</v>
       </c>
       <c r="M74" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N74" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N74" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O74" s="3" t="s">
         <v>74</v>
@@ -6245,7 +6257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>64</v>
       </c>
@@ -6283,10 +6295,10 @@
         <v>75</v>
       </c>
       <c r="M75" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N75" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N75" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O75" s="3" t="s">
         <v>74</v>
@@ -6304,7 +6316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>64</v>
       </c>
@@ -6318,7 +6330,7 @@
         <v>73</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>72</v>
@@ -6342,10 +6354,10 @@
         <v>71</v>
       </c>
       <c r="M76" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N76" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N76" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>70</v>
@@ -6363,7 +6375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>64</v>
       </c>
@@ -6377,7 +6389,7 @@
         <v>68</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>67</v>
@@ -6401,10 +6413,10 @@
         <v>66</v>
       </c>
       <c r="M77" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N77" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N77" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O77" s="3" t="s">
         <v>65</v>
@@ -6422,7 +6434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>64</v>
       </c>
@@ -6436,7 +6448,7 @@
         <v>62</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>61</v>
@@ -6460,10 +6472,10 @@
         <v>60</v>
       </c>
       <c r="M78" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N78" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N78" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O78" s="3" t="s">
         <v>59</v>
@@ -6481,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>5</v>
       </c>
@@ -6495,7 +6507,7 @@
         <v>58</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>7</v>
@@ -6519,10 +6531,10 @@
         <v>57</v>
       </c>
       <c r="M79" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N79" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N79" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O79" s="3" t="s">
         <v>1</v>
@@ -6540,7 +6552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>5</v>
       </c>
@@ -6554,7 +6566,7 @@
         <v>56</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>7</v>
@@ -6578,10 +6590,10 @@
         <v>54</v>
       </c>
       <c r="M80" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="N80" s="18" t="s">
         <v>388</v>
-      </c>
-      <c r="N80" s="18" t="s">
-        <v>389</v>
       </c>
       <c r="O80" s="7" t="s">
         <v>1</v>
@@ -6599,7 +6611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>5</v>
       </c>
@@ -6613,7 +6625,7 @@
         <v>52</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>51</v>
@@ -6637,10 +6649,10 @@
         <v>50</v>
       </c>
       <c r="M81" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N81" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>49</v>
@@ -6658,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>5</v>
       </c>
@@ -6672,7 +6684,7 @@
         <v>48</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>7</v>
@@ -6696,10 +6708,10 @@
         <v>38</v>
       </c>
       <c r="M82" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N82" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O82" s="7" t="s">
         <v>1</v>
@@ -6717,7 +6729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>5</v>
       </c>
@@ -6731,7 +6743,7 @@
         <v>47</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>7</v>
@@ -6755,10 +6767,10 @@
         <v>34</v>
       </c>
       <c r="M83" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N83" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>1</v>
@@ -6776,7 +6788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>5</v>
       </c>
@@ -6790,7 +6802,7 @@
         <v>46</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>45</v>
@@ -6814,10 +6826,10 @@
         <v>45</v>
       </c>
       <c r="M84" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N84" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O84" s="3" t="s">
         <v>1</v>
@@ -6835,7 +6847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>5</v>
       </c>
@@ -6849,7 +6861,7 @@
         <v>44</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>7</v>
@@ -6873,10 +6885,10 @@
         <v>41</v>
       </c>
       <c r="M85" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N85" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O85" s="3" t="s">
         <v>1</v>
@@ -6894,7 +6906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>5</v>
       </c>
@@ -6908,7 +6920,7 @@
         <v>43</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>7</v>
@@ -6932,10 +6944,10 @@
         <v>41</v>
       </c>
       <c r="M86" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N86" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O86" s="9" t="s">
         <v>1</v>
@@ -6953,7 +6965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>5</v>
       </c>
@@ -6967,7 +6979,7 @@
         <v>42</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>7</v>
@@ -6991,10 +7003,10 @@
         <v>41</v>
       </c>
       <c r="M87" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N87" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O87" s="3" t="s">
         <v>1</v>
@@ -7012,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>5</v>
       </c>
@@ -7026,7 +7038,7 @@
         <v>40</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>12</v>
@@ -7050,10 +7062,10 @@
         <v>12</v>
       </c>
       <c r="M88" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N88" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O88" s="3" t="s">
         <v>1</v>
@@ -7071,7 +7083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>5</v>
       </c>
@@ -7085,7 +7097,7 @@
         <v>39</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>7</v>
@@ -7109,10 +7121,10 @@
         <v>38</v>
       </c>
       <c r="M89" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N89" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>1</v>
@@ -7130,7 +7142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>5</v>
       </c>
@@ -7144,7 +7156,7 @@
         <v>37</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>7</v>
@@ -7168,10 +7180,10 @@
         <v>36</v>
       </c>
       <c r="M90" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N90" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O90" s="3" t="s">
         <v>1</v>
@@ -7189,7 +7201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>5</v>
       </c>
@@ -7203,7 +7215,7 @@
         <v>35</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>7</v>
@@ -7227,10 +7239,10 @@
         <v>34</v>
       </c>
       <c r="M91" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N91" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>1</v>
@@ -7248,7 +7260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>5</v>
       </c>
@@ -7262,7 +7274,7 @@
         <v>33</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>32</v>
@@ -7286,10 +7298,10 @@
         <v>32</v>
       </c>
       <c r="M92" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N92" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O92" s="3" t="s">
         <v>1</v>
@@ -7307,12 +7319,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>31</v>
@@ -7321,7 +7333,7 @@
         <v>31</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>30</v>
@@ -7345,10 +7357,10 @@
         <v>30</v>
       </c>
       <c r="M93" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N93" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O93" s="3" t="s">
         <v>1</v>
@@ -7366,12 +7378,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>29</v>
@@ -7380,7 +7392,7 @@
         <v>29</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>7</v>
@@ -7404,10 +7416,10 @@
         <v>28</v>
       </c>
       <c r="M94" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N94" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O94" s="6" t="s">
         <v>1</v>
@@ -7425,7 +7437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>5</v>
       </c>
@@ -7439,7 +7451,7 @@
         <v>27</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>26</v>
@@ -7463,10 +7475,10 @@
         <v>26</v>
       </c>
       <c r="M95" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N95" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O95" s="3" t="s">
         <v>1</v>
@@ -7484,12 +7496,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>25</v>
@@ -7498,7 +7510,7 @@
         <v>25</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>24</v>
@@ -7522,10 +7534,10 @@
         <v>24</v>
       </c>
       <c r="M96" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N96" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O96" s="3" t="s">
         <v>1</v>
@@ -7543,12 +7555,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>23</v>
@@ -7557,7 +7569,7 @@
         <v>23</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>22</v>
@@ -7581,10 +7593,10 @@
         <v>22</v>
       </c>
       <c r="M97" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N97" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O97" s="3" t="s">
         <v>1</v>
@@ -7602,7 +7614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>5</v>
       </c>
@@ -7616,7 +7628,7 @@
         <v>21</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>7</v>
@@ -7640,10 +7652,10 @@
         <v>20</v>
       </c>
       <c r="M98" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N98" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O98" s="3" t="s">
         <v>1</v>
@@ -7661,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>5</v>
       </c>
@@ -7675,7 +7687,7 @@
         <v>19</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>7</v>
@@ -7699,10 +7711,10 @@
         <v>17</v>
       </c>
       <c r="M99" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N99" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O99" s="3" t="s">
         <v>1</v>
@@ -7720,7 +7732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>5</v>
       </c>
@@ -7734,7 +7746,7 @@
         <v>18</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>7</v>
@@ -7758,10 +7770,10 @@
         <v>17</v>
       </c>
       <c r="M100" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N100" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O100" s="7" t="s">
         <v>1</v>
@@ -7779,7 +7791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>5</v>
       </c>
@@ -7793,7 +7805,7 @@
         <v>16</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>12</v>
@@ -7817,10 +7829,10 @@
         <v>12</v>
       </c>
       <c r="M101" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N101" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>1</v>
@@ -7838,7 +7850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>5</v>
       </c>
@@ -7852,7 +7864,7 @@
         <v>15</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>7</v>
@@ -7876,10 +7888,10 @@
         <v>14</v>
       </c>
       <c r="M102" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N102" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>1</v>
@@ -7897,7 +7909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>5</v>
       </c>
@@ -7911,7 +7923,7 @@
         <v>13</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>12</v>
@@ -7935,10 +7947,10 @@
         <v>12</v>
       </c>
       <c r="M103" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N103" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O103" s="3" t="s">
         <v>1</v>
@@ -7956,7 +7968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>5</v>
       </c>
@@ -7970,7 +7982,7 @@
         <v>10</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>7</v>
@@ -7994,10 +8006,10 @@
         <v>6</v>
       </c>
       <c r="M104" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N104" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O104" s="3" t="s">
         <v>1</v>
@@ -8015,7 +8027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>5</v>
       </c>
@@ -8029,7 +8041,7 @@
         <v>8</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>7</v>
@@ -8053,10 +8065,10 @@
         <v>6</v>
       </c>
       <c r="M105" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N105" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O105" s="6" t="s">
         <v>1</v>
@@ -8074,12 +8086,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>4</v>
@@ -8088,7 +8100,7 @@
         <v>4</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>2</v>
@@ -8112,10 +8124,10 @@
         <v>2</v>
       </c>
       <c r="M106" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N106" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O106" s="3" t="s">
         <v>1</v>
@@ -8133,33 +8145,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="22"/>
       <c r="R107" s="2"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="22"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="22"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="22"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="22"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="22"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="22"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="22"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="22"/>
     </row>
   </sheetData>
@@ -8182,534 +8194,534 @@
       <selection sqref="A1:A105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.8125" customWidth="1"/>
+    <col min="1" max="1" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+    <row r="83" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="17" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -8723,7 +8735,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
